--- a/biology/Médecine/Roland_Copé/Roland_Copé.xlsx
+++ b/biology/Médecine/Roland_Copé/Roland_Copé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Roland_Cop%C3%A9</t>
+          <t>Roland_Copé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roland Copé est un spécialiste français de proctologie médicochirurgicale[1], diplômé en cancérologie[2], né le 14 mars 1930 à Charenton-le-Pont (Seine). Il est également comédien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roland Copé est un spécialiste français de proctologie médicochirurgicale, diplômé en cancérologie, né le 14 mars 1930 à Charenton-le-Pont (Seine). Il est également comédien.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Roland_Cop%C3%A9</t>
+          <t>Roland_Copé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,23 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 14 mars 1930 à Charenton-le-Pont au sein d’une famille juive ashkénaze d’origine roumaine, il est le fils d’un médecin généraliste, le docteur Marcu Hirs Copelovici, devenu Marcel Copé après avoir fui en 1926 l'antisémitisme roumain de la région d'Iași[3].
-Il échappe en 1943 à une rafle des nazis grâce à un couple d’Aubusson (Creuse), fait plus tard « justes parmi les nations »[4].
-Médecine
-Parcours
-En 1957, Roland Copé découvre la proctologie, spécialité alors relativement méconnue[5], en devenant attaché de consultation dans le service du Pr Roger Cattan à l’hôpital Saint-Antoine à Paris. Il y  apprend notamment la chirurgie des hémorroïdes et des fistules anales suivant des méthodes différentes de celles pratiquées par les chirurgiens de l’époque[réf. nécessaire]. Il devient l’un des premiers membres de la société française de proctologie, créée par Alfred Bensaude et Jean Arnous en 1958. De 1961 à 1974, il est par ailleurs médecin de la Croix-Rouge. Chargé de la création d’un centre de proctologie à l’hôpital Goüin à Clichy, il en  devient chef de service en 1971. En 1984, il est élu professeur au Collège de médecine des hôpitaux de Paris[1].
-Il est également l’un des premiers proctologues à être membre de la Société française de cancérologie privée et à entrer au bureau de cette société dès 1981.
-Apport scientifique et académique
-Roland Copé a contribué à faire mieux connaître la proctologie auprès des chirurgiens et des gastro-entérologues mais aussi auprès des médecins généralistes et des spécialités frontières, en particulier les gynécologues et les dermatologues[6]. À cet effet, il crée dans son service de l’hôpital Goüin un cycle d’enseignement de proctologie[7]. Il prend également part au cycle d’enseignement des professeurs Hollender et Grenier à Strasbourg et au cycle d’enseignement du professeur Sarles à Marseille[réf. nécessaire].
-Membre enseignant au diplôme universitaire (DU) de proctologie créé dans les années 1980, il organise en outre des conférences aux côtés des confrères généralistes Amicales de Paris et des conférences à la société de cancérologie, communiquant en particulier sur les cancers anaux et colorectaux.
-Carrière d'acteur
-En parallèle à sa carrière médicale, Roland Copé a entrepris une carrière d’acteur au cinéma et à la télévision[8].
-En 1997, il devient ainsi élève du cours de Jean-Pierre Hané[9] au conservatoire Erik Satie du 7e arrondissement de Paris.
-Patronyme et Famille
-Roland Copé est né Copel. Par décret du 11 juillet 1956 il est autorisé à s'appeler Copé.[réf. nécessaire]
-Il est le père de l'homme politique Jean-François Copé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 14 mars 1930 à Charenton-le-Pont au sein d’une famille juive ashkénaze d’origine roumaine, il est le fils d’un médecin généraliste, le docteur Marcu Hirs Copelovici, devenu Marcel Copé après avoir fui en 1926 l'antisémitisme roumain de la région d'Iași.
+Il échappe en 1943 à une rafle des nazis grâce à un couple d’Aubusson (Creuse), fait plus tard « justes parmi les nations ».
 </t>
         </is>
       </c>
@@ -538,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Roland_Cop%C3%A9</t>
+          <t>Roland_Copé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,12 +554,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Films médicaux</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roland Copé a été un des premiers proctologues à réaliser, avec Monique Copé, son épouse[10], des films sur la proctologie à usage pédagogique. Il a notamment produit un film sur l‘examen proctologique en 1978 et une série de trois sujets : « La proctologie sans frontière » (Les suppurations anales, 1991, La maladie hémorroïdaire, 1993, Proctologie  et sida, 1994). Ces films ont obtenu le prix du festival médico-chirurgical (Deauville)[6].
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Parcours</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1957, Roland Copé découvre la proctologie, spécialité alors relativement méconnue, en devenant attaché de consultation dans le service du Pr Roger Cattan à l’hôpital Saint-Antoine à Paris. Il y  apprend notamment la chirurgie des hémorroïdes et des fistules anales suivant des méthodes différentes de celles pratiquées par les chirurgiens de l’époque[réf. nécessaire]. Il devient l’un des premiers membres de la société française de proctologie, créée par Alfred Bensaude et Jean Arnous en 1958. De 1961 à 1974, il est par ailleurs médecin de la Croix-Rouge. Chargé de la création d’un centre de proctologie à l’hôpital Goüin à Clichy, il en  devient chef de service en 1971. En 1984, il est élu professeur au Collège de médecine des hôpitaux de Paris.
+Il est également l’un des premiers proctologues à être membre de la Société française de cancérologie privée et à entrer au bureau de cette société dès 1981.
 </t>
         </is>
       </c>
@@ -569,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Roland_Cop%C3%A9</t>
+          <t>Roland_Copé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,12 +596,165 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Apport scientifique et académique</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roland Copé a contribué à faire mieux connaître la proctologie auprès des chirurgiens et des gastro-entérologues mais aussi auprès des médecins généralistes et des spécialités frontières, en particulier les gynécologues et les dermatologues. À cet effet, il crée dans son service de l’hôpital Goüin un cycle d’enseignement de proctologie. Il prend également part au cycle d’enseignement des professeurs Hollender et Grenier à Strasbourg et au cycle d’enseignement du professeur Sarles à Marseille[réf. nécessaire].
+Membre enseignant au diplôme universitaire (DU) de proctologie créé dans les années 1980, il organise en outre des conférences aux côtés des confrères généralistes Amicales de Paris et des conférences à la société de cancérologie, communiquant en particulier sur les cancers anaux et colorectaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Roland_Copé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Cop%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Carrière d'acteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En parallèle à sa carrière médicale, Roland Copé a entrepris une carrière d’acteur au cinéma et à la télévision.
+En 1997, il devient ainsi élève du cours de Jean-Pierre Hané au conservatoire Erik Satie du 7e arrondissement de Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roland_Copé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Cop%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Patronyme et Famille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roland Copé est né Copel. Par décret du 11 juillet 1956 il est autorisé à s'appeler Copé.[réf. nécessaire]
+Il est le père de l'homme politique Jean-François Copé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Roland_Copé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Cop%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Films médicaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roland Copé a été un des premiers proctologues à réaliser, avec Monique Copé, son épouse, des films sur la proctologie à usage pédagogique. Il a notamment produit un film sur l‘examen proctologique en 1978 et une série de trois sujets : « La proctologie sans frontière » (Les suppurations anales, 1991, La maladie hémorroïdaire, 1993, Proctologie  et sida, 1994). Ces films ont obtenu le prix du festival médico-chirurgical (Deauville).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Roland_Copé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Cop%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le guide de proctologie, monographie de 120 pages illustrées de 200 photos[5],  éd. Servier
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le guide de proctologie, monographie de 120 pages illustrées de 200 photos,  éd. Servier
 Les suppurations anales, Monographie de 40 pages illustrée de dessins et photos couleurs originales,  éd. Gedy
 La vénérologie anale de l’anus (M.S.T.), L’année du médecin,  éd. Flammarion
 Atlas de la maladie hémorroïdaire, illustré de 200 photos et 60 schémas, Premier prix de l'Académie de médecine de Paris,  éd. Louis Pariente
@@ -605,37 +770,43 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Roland_Cop%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roland_Cop%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Roland_Copé</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Cop%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Télévision
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2006 : Navarro
 2007 et 2008 : Diane, femme flic
 2007 et 2009 : PJ.
-2008 et 2014 : Plus belle la vie  (Gaston Fiquin) sur France 3[11].
+2008 et 2014 : Plus belle la vie  (Gaston Fiquin) sur France 3.
 2008 : Marie-Octobre de Josée Dayan
 2010 : Un lien incertain de Josée Dayan
 2010 : À la recherche du temps perdu de Nina Companéez
@@ -646,12 +817,83 @@
 2014 : Richelieu, la Pourpre et le Sang d'Henri Helman
 2014 : Mongeville (épisode À l'heure de notre mort) : Lucien Belfond
 2016 : Monsieur Paul d'Olivier Schatzky : Un ancien déporté
-Cinéma
-2006 : Les Brigades du Tigre[12]
-2010 : La Rafle : maréchal Pétain[2]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Roland_Copé</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Cop%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2006 : Les Brigades du Tigre
+2010 : La Rafle : maréchal Pétain
 2010 : Donnant Donnant d'Isabelle Mergault
-Web série
-2013 : OScar Bac+5 Chomeur</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Roland_Copé</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Cop%C3%A9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Web série</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2013 : OScar Bac+5 Chomeur</t>
         </is>
       </c>
     </row>
